--- a/src/test/resources/TestNGXML.xlsx
+++ b/src/test/resources/TestNGXML.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="19200" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>SuiteName</t>
   </si>
@@ -75,16 +75,19 @@
     <t>browser</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>loginUser</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>TC_002</t>
-  </si>
-  <si>
-    <t>loginUser</t>
   </si>
   <si>
     <t>TC_003</t>
@@ -103,7 +106,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,19 +121,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8"/>
-      <color rgb="FF56A8F5"/>
-      <name val="JetBrains Mono"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -597,146 +587,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1273,22 +1260,22 @@
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69444444444444" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.69090909090909" defaultRowHeight="14.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="29.3888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.212962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.9907407407407" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.2962962962963" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1018518518519" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.8333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7407407407407" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.2592592592593" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.69444444444444" style="1"/>
+    <col min="1" max="1" width="29.3909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.2090909090909" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.9909090909091" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.3" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.8363636363636" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7363636363636" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.2636363636364" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.69090909090909" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1327,13 +1314,13 @@
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1356,13 +1343,13 @@
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1372,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
@@ -1385,14 +1372,14 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -1423,7 +1410,7 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/TestNGXML.xlsx
+++ b/src/test/resources/TestNGXML.xlsx
@@ -75,25 +75,25 @@
     <t>browser</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>loginUser</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>changePassword</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>TC_002</t>
-  </si>
-  <si>
-    <t>loginUser</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>TC_003</t>
-  </si>
-  <si>
-    <t>changePassword</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.69090909090909" defaultRowHeight="14.5" outlineLevelRow="3"/>
@@ -1359,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
@@ -1376,10 +1376,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>

--- a/src/test/resources/TestNGXML.xlsx
+++ b/src/test/resources/TestNGXML.xlsx
@@ -1273,15 +1273,15 @@
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.69444444444444" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="29.3888888888889" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.212962962963" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7777777777778" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.9907407407407" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.2962962962963" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.1018518518519" style="1" customWidth="1"/>
